--- a/Docs/Capability Matrix.xlsx
+++ b/Docs/Capability Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="18680" yWindow="5520" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Capability Matrix" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>MATLAB</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>CTRL</t>
-  </si>
-  <si>
-    <t>Fix Flaps</t>
   </si>
   <si>
     <t>TEXT</t>
@@ -199,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -632,12 +632,10 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
@@ -670,12 +668,10 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,12 +686,10 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
@@ -710,34 +704,36 @@
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>20</v>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -762,7 +758,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -790,9 +786,7 @@
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="16">
-        <v>41915</v>
-      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="14" t="s">
         <v>12</v>
@@ -813,7 +807,7 @@
       <c r="G29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:G17"/>
@@ -823,6 +817,11 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
